--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdCl.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdCl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C58AA6-EF92-41EA-A6AC-ACBFBAC679A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F29351-8766-458C-B559-2E2B1ED60406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -219,30 +219,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>擔保品代號1 &amp; 擔保品代號2: 擔保品名稱2
-1-01: 住宅
-1-02: 辦公
-1-03: 商場
-1-04: 廠房
-1-05: 停車位
-1-99: 其他
-2-01: 住宅區
-2-02: 商業區
-2-03: 工業區
-2-09: 其他分區
-2-10: 甲種建地
-2-11: 乙種建地
-2-12: 丙種建地
-2-13: 丁種建地
-2-19: 其他用地
-3-01: 股票
-4-01: 其他有價證券
-5-01: 銀行保證
-9-01: 車輛
-9-02: 機器設備</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>擔保品代號檔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -284,6 +260,30 @@
   </si>
   <si>
     <t>ClCode1 asc,ClCode2 asc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擔保品代號1 &amp; 擔保品代號2：擔保品名稱2
+1-01:住宅
+1-02:辦公
+1-03:商場
+1-04:廠房
+1-05:停車位
+1-99:其他
+2-01:住宅區
+2-02:商業區
+2-03:工業區
+2-09:其他分區
+2-10:甲種建地
+2-11:乙種建地
+2-12:丙種建地
+2-13:丁種建地
+2-19:其他用地
+3-01:股票
+4-01:其他有價證券
+5-01:銀行保證
+9-01:車輛
+9-02:機器設備</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="A17:B18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -932,7 +932,7 @@
         <v>31</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
@@ -994,7 +994,7 @@
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="24"/>
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>38</v>
@@ -1082,10 +1082,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>43</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>20</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1325,18 +1325,18 @@
     </row>
     <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>35</v>
@@ -1344,13 +1344,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
